--- a/data/output/Pedido_Semana_07_13022026_vivero.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_vivero.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>8201070001</t>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>23.55</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>14.13</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" hidden="1">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>8501020002</t>
@@ -1699,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22.35</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>13.41</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>8501040001</t>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5LA75    </t>
+          <t xml:space="preserve">0I8LA30  </t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="F16" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>37.62</v>
+        <v>10.43</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>15.05</v>
+        <v>4.17</v>
       </c>
       <c r="I16" s="5" t="inlineStr">
         <is>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>150.5</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>90.3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1794,22 +1794,22 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" hidden="1">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0I8LA30  </t>
+          <t xml:space="preserve">5LA75    </t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>10.43</v>
+        <v>37.62</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>4.17</v>
+        <v>15.05</v>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="3" t="n">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>8501150001</t>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>34.65</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>20.79</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" hidden="1">
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>132.83</v>
+        <v>94.88</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>79.7</v>
+        <v>56.93</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>8104230004</t>
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>48.35</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>29.01</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -2619,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>8501030001</t>
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>283.8</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>170.28</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>8106010003</t>
@@ -2755,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>8501020002</t>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>23.65</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>14.19</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>8304010001</t>
@@ -2917,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>136.12</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>81.67</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -2943,10 +2943,10 @@
         <v>13</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>8201070001</t>
@@ -2995,13 +2995,13 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>8804240001</t>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>374.7</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>224.82</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>8804240003</t>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>73.3</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>43.98</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="inlineStr">
         <is>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" hidden="1">
@@ -3513,7 +3513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>8401020015</t>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>43.25</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>25.95</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="inlineStr">
         <is>
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="P38" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" hidden="1">
@@ -3756,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>8801020001</t>
@@ -3808,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="6" t="n">
-        <v>131.93</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>79.16</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="P41" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="U41" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C36A200  </t>
+          <t xml:space="preserve">C20A60   </t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -3864,13 +3864,13 @@
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>181.28</v>
+        <v>45.48</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>72.51000000000001</v>
+        <v>18.19</v>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 25%</t>
         </is>
       </c>
       <c r="K42" s="3" t="n">
@@ -3889,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="n">
-        <v>362.55</v>
+        <v>90.95</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>217.53</v>
+        <v>54.57</v>
       </c>
       <c r="O42" s="7" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="P42" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="3" t="n">
         <v>2</v>
@@ -3918,7 +3918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>8801060001</t>
@@ -3970,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="n">
-        <v>161.3</v>
+        <v>0</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>96.78</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="inlineStr">
         <is>
@@ -3981,10 +3981,10 @@
         </is>
       </c>
       <c r="P43" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" hidden="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>8801060001</t>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A60   </t>
+          <t xml:space="preserve">C36A200  </t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -4026,13 +4026,13 @@
         </is>
       </c>
       <c r="F44" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>45.48</v>
+        <v>181.28</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>18.19</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 25%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K44" s="3" t="n">
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
-        <v>90.95</v>
+        <v>0</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>54.57</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="inlineStr">
         <is>
@@ -4062,10 +4062,10 @@
         </is>
       </c>
       <c r="P44" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" hidden="1">
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>71.3</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
-          <t>2853.39€</t>
+          <t>921.04€</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
